--- a/InputFiles/CCDI/CCDIRowDataValidation_phs003111short.xlsx
+++ b/InputFiles/CCDI/CCDIRowDataValidation_phs003111short.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0291E4D6-89EB-4800-914F-7A2CED7AAE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9357DD72-1963-41DB-AF5F-BE2795C3A3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>qa_participant_id</t>
   </si>
@@ -46,18 +46,6 @@
   </si>
   <si>
     <t>IID_H195922</t>
-  </si>
-  <si>
-    <t>IID_H196227</t>
-  </si>
-  <si>
-    <t>IID_H196390</t>
-  </si>
-  <si>
-    <t>IID_H196438</t>
-  </si>
-  <si>
-    <t>IID_H196807</t>
   </si>
 </sst>
 </file>
@@ -375,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -416,26 +404,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputFiles/CCDI/CCDIRowDataValidation_phs003111short.xlsx
+++ b/InputFiles/CCDI/CCDIRowDataValidation_phs003111short.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9357DD72-1963-41DB-AF5F-BE2795C3A3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3868DBCC-333C-4693-9828-1A0A6A124306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>qa_participant_id</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>IID_H108303</t>
-  </si>
-  <si>
-    <t>IID_H108305</t>
-  </si>
-  <si>
-    <t>IID_H195918</t>
   </si>
   <si>
     <t>IID_H195922</t>
@@ -363,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD10"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -394,16 +388,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
